--- a/data/tests/ribose_tastetest.xlsx
+++ b/data/tests/ribose_tastetest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Seagate Exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3560e5ddcd8545bd/Documents/ribose-paper/data/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB03ADD3-D17B-6947-92A6-8A3B7F9E6584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{8A7A0953-1DB0-45AF-8E1C-13CA3A9FAAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AD66492-8AA8-4C1A-A68F-13CB1B472E50}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{5B52427A-897E-E54D-9B51-CA7D266CF5B4}"/>
+    <workbookView xWindow="-27270" yWindow="1200" windowWidth="24795" windowHeight="13035" xr2:uid="{5B52427A-897E-E54D-9B51-CA7D266CF5B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="14">
   <si>
     <t>subject</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>supplement</t>
   </si>
   <si>
     <t>answer</t>
@@ -52,6 +46,36 @@
   </si>
   <si>
     <t>Glucose</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>incorrect</t>
   </si>
 </sst>
 </file>
@@ -106,8 +130,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -403,598 +431,992 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B64A4C-CA4E-C349-BA90-AD5F923E34DB}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>101</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>101</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>102</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>102</v>
       </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>102</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>102</v>
       </c>
-      <c r="B9">
-        <v>4</v>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>103</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>103</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>103</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>103</v>
       </c>
-      <c r="B13">
-        <v>4</v>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>105</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>105</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>105</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>105</v>
       </c>
-      <c r="B17">
-        <v>4</v>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>106</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>106</v>
       </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>106</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>106</v>
       </c>
-      <c r="B21">
-        <v>4</v>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>107</v>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>107</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>107</v>
       </c>
-      <c r="B24">
-        <v>3</v>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>107</v>
       </c>
-      <c r="B25">
-        <v>4</v>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>108</v>
       </c>
-      <c r="B26">
-        <v>1</v>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>108</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>108</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>108</v>
       </c>
-      <c r="B29">
-        <v>4</v>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>109</v>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>109</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>109</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>109</v>
       </c>
-      <c r="B33">
-        <v>4</v>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>112</v>
       </c>
-      <c r="B34">
-        <v>1</v>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>112</v>
       </c>
-      <c r="B35">
-        <v>2</v>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>112</v>
       </c>
-      <c r="B36">
-        <v>3</v>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>112</v>
       </c>
-      <c r="B37">
-        <v>4</v>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>113</v>
       </c>
-      <c r="B38">
-        <v>1</v>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>113</v>
       </c>
-      <c r="B39">
-        <v>2</v>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>113</v>
       </c>
-      <c r="B40">
-        <v>3</v>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>113</v>
       </c>
-      <c r="B41">
-        <v>4</v>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>114</v>
       </c>
-      <c r="B42">
-        <v>1</v>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>114</v>
       </c>
-      <c r="B43">
-        <v>2</v>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>114</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>114</v>
       </c>
-      <c r="B45">
-        <v>4</v>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>115</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>115</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>115</v>
-      </c>
-      <c r="B48">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>115</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>116</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>116</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>116</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>116</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
